--- a/data/Sedia® HIV-1 LAg-Avidity EIA ODs results 2 calibrator data.xlsx
+++ b/data/Sedia® HIV-1 LAg-Avidity EIA ODs results 2 calibrator data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sempajb\Documents\GitHub\EDCTP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DAE008-DD9A-4116-BAE2-D71A94F7D2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9270D757-7CB7-4318-A07C-4CF678CBE38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C475E888-7F5E-4F37-A6A4-B84736E7515A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C475E888-7F5E-4F37-A6A4-B84736E7515A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1573,10 +1573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A164692-01FF-4211-BD6A-69992255D55A}">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="K86" sqref="K86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2941,7 +2941,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3025,12 +3025,8 @@
       <c r="E85" t="s">
         <v>392</v>
       </c>
-      <c r="K85">
-        <f>11*5</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3047,7 +3043,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -3064,7 +3060,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -3081,7 +3077,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3098,7 +3094,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3115,7 +3111,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3132,7 +3128,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3149,7 +3145,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -3166,7 +3162,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -3183,7 +3179,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3200,7 +3196,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3243,7 +3239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1699F099-DA34-4D7F-87BE-23AC465891F3}">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A60" workbookViewId="0">
       <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
@@ -4907,7 +4903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5A7A08-48BF-4DA4-AEE4-649F08D6A3A2}">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E97"/>
     </sheetView>
   </sheetViews>
@@ -6571,8 +6567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5966E7-47E3-4537-B30C-791C2672DCE8}">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
